--- a/tools/can-dgsi-104/can-dgsi-104.xlsx
+++ b/tools/can-dgsi-104/can-dgsi-104.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominique/ciso-assistant-community/tools/can-dgsi-104/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F53B60-2365-6C42-9804-CC4E53F0C430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316BD252-FA13-694C-AD34-57B3D16B2041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="880" windowWidth="34560" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
